--- a/Tổng kết dự án.xlsx
+++ b/Tổng kết dự án.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\votan\Desktop\QuanLyNhaSach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C37BAC-8B5A-4F78-843A-4B5410C822D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7FDE95-BABA-4E24-AA09-0205ACB11031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>Nguyễn Trùng Dương</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1UpIOJnrGyavCt3GpZlpuq2wO2p2b7zV7/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Đặc tả use case Thêm Sách</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Chức năng quản lý thể loại</t>
+  </si>
+  <si>
+    <t>https://github.com/votanphong98/PTPMCN-VoTanPhong-NguyenTrungDuong</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+      <selection activeCell="A4" sqref="A4:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -1647,7 +1647,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>32</v>
@@ -1680,7 +1680,7 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>32</v>
@@ -1713,7 +1713,7 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>32</v>
@@ -1800,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>32</v>
@@ -1831,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
@@ -1889,7 +1889,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>32</v>
@@ -1920,7 +1920,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
@@ -2040,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>32</v>
@@ -2071,7 +2071,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
@@ -2156,7 +2156,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>32</v>
@@ -2187,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
@@ -2215,10 +2215,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
@@ -2246,10 +2246,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>32</v>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
@@ -2308,10 +2308,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>65</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>32</v>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>32</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
@@ -2401,10 +2401,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>70</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>32</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
@@ -2463,10 +2463,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
@@ -2494,10 +2494,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>75</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>32</v>
